--- a/1.xlsx
+++ b/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\we-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9B4BD3-B3FD-4ABD-B533-30EFD2D54D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081930FD-35D4-47FC-963A-2BBF7687E312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>为那好吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,17 +356,17 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -365,17 +374,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -383,12 +395,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>32</v>
       </c>

--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\we-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9B4BD3-B3FD-4ABD-B533-30EFD2D54D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934B244D-3086-4F4D-B580-036972B273F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="3430" windowWidth="28930" windowHeight="17450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,20 +344,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -365,17 +365,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -383,14 +383,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">

--- a/1.xlsx
+++ b/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\we-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9B4BD3-B3FD-4ABD-B533-30EFD2D54D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071677B1-404A-4327-BBA7-DC42E65E698E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="3430" windowWidth="28930" windowHeight="17450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>嘎嘎嘎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,17 +356,17 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -365,17 +374,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -383,14 +392,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">

--- a/1.xlsx
+++ b/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\we-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9B4BD3-B3FD-4ABD-B533-30EFD2D54D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27241E0-97AE-4F59-9014-3C0EEC1D78EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="3430" windowWidth="28930" windowHeight="17450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,17 +360,17 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -365,17 +378,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -383,12 +396,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>32</v>
       </c>
